--- a/survey-day1.xlsx
+++ b/survey-day1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N I T R O 5\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N I T R O 5\Downloads\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99B361B-6269-48C1-81F9-6E015E87A28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DF3590-210C-4012-B6DE-3FD8874C6E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DBE5A9BC-9E64-4DF8-AF00-692DA29E84AB}"/>
   </bookViews>
@@ -76,9 +76,6 @@
     <t>Mean M</t>
   </si>
   <si>
-    <t>Discrepancy</t>
-  </si>
-  <si>
     <t>Forward 
 Distance</t>
   </si>
@@ -459,6 +456,9 @@
       </rPr>
       <t>2</t>
     </r>
+  </si>
+  <si>
+    <t>Difference</t>
   </si>
 </sst>
 </file>
@@ -553,21 +553,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -583,6 +568,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -913,333 +913,333 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="7"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="7"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="7"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="7"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="E5" s="5" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="E5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="9"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="12">
+      <c r="A10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="7">
         <v>78.626999999999995</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="7">
         <v>78.587999999999994</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="7">
         <f>(B10+C10)/2</f>
         <v>78.607499999999987</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="7">
         <f>ABS(B10-C10)</f>
         <v>3.9000000000001478E-2</v>
       </c>
-      <c r="F10" s="12" t="str">
+      <c r="F10" s="7" t="str">
         <f>"1:"&amp; ROUND(D10/E10,0)</f>
         <v>1:2016</v>
       </c>
-      <c r="G10" s="8"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="12">
+      <c r="A11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="7">
         <v>81.394000000000005</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="7">
         <v>81.403999999999996</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="7">
         <f t="shared" ref="D11:D19" si="0">(B11+C11)/2</f>
         <v>81.399000000000001</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="7">
         <f t="shared" ref="E11:E19" si="1">ABS(B11-C11)</f>
         <v>9.9999999999909051E-3</v>
       </c>
-      <c r="F11" s="12" t="str">
+      <c r="F11" s="7" t="str">
         <f t="shared" ref="F11:F19" si="2">"1:"&amp; ROUND(D11/E11,0)</f>
         <v>1:8140</v>
       </c>
-      <c r="G11" s="8"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="12">
+      <c r="A12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="7">
         <v>83.697999999999993</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="7">
         <v>83.67</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="7">
         <f t="shared" si="0"/>
         <v>83.683999999999997</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="7">
         <f t="shared" si="1"/>
         <v>2.7999999999991587E-2</v>
       </c>
-      <c r="F12" s="12" t="str">
+      <c r="F12" s="7" t="str">
         <f t="shared" si="2"/>
         <v>1:2989</v>
       </c>
-      <c r="G12" s="8"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="12">
+      <c r="A13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="7">
         <v>69.498000000000005</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="7">
         <v>69.474000000000004</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="7">
         <f t="shared" si="0"/>
         <v>69.486000000000004</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="7">
         <f t="shared" si="1"/>
         <v>2.4000000000000909E-2</v>
       </c>
-      <c r="F13" s="12" t="str">
+      <c r="F13" s="7" t="str">
         <f t="shared" si="2"/>
         <v>1:2895</v>
       </c>
-      <c r="G13" s="8"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="12">
+      <c r="A14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="7">
         <v>77.975999999999999</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="7">
         <v>77.953999999999994</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="7">
         <f t="shared" si="0"/>
         <v>77.965000000000003</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="7">
         <f t="shared" si="1"/>
         <v>2.2000000000005571E-2</v>
       </c>
-      <c r="F14" s="12" t="str">
+      <c r="F14" s="7" t="str">
         <f t="shared" si="2"/>
         <v>1:3544</v>
       </c>
-      <c r="G14" s="8"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="12">
+      <c r="A15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="7">
         <v>93.903999999999996</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="7">
         <v>93.926000000000002</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="7">
         <f t="shared" si="0"/>
         <v>93.914999999999992</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="7">
         <f t="shared" si="1"/>
         <v>2.2000000000005571E-2</v>
       </c>
-      <c r="F15" s="12" t="str">
+      <c r="F15" s="7" t="str">
         <f t="shared" si="2"/>
         <v>1:4269</v>
       </c>
-      <c r="G15" s="8"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="12">
+      <c r="A16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="7">
         <v>89.025999999999996</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="7">
         <v>88.983999999999995</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="7">
         <f t="shared" si="0"/>
         <v>89.004999999999995</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="7">
         <f t="shared" si="1"/>
         <v>4.2000000000001592E-2</v>
       </c>
-      <c r="F16" s="12" t="str">
+      <c r="F16" s="7" t="str">
         <f t="shared" si="2"/>
         <v>1:2119</v>
       </c>
-      <c r="G16" s="8"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="12">
+      <c r="A17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="7">
         <v>69.477999999999994</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="7">
         <v>69.453999999999994</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="7">
         <f t="shared" si="0"/>
         <v>69.465999999999994</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="7">
         <f t="shared" si="1"/>
         <v>2.4000000000000909E-2</v>
       </c>
-      <c r="F17" s="12" t="str">
+      <c r="F17" s="7" t="str">
         <f t="shared" si="2"/>
         <v>1:2894</v>
       </c>
-      <c r="G17" s="8"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="12">
+      <c r="A18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="7">
         <v>90.858000000000004</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="7">
         <v>90.88</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="7">
         <f t="shared" si="0"/>
         <v>90.869</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="7">
         <f t="shared" si="1"/>
         <v>2.199999999999136E-2</v>
       </c>
-      <c r="F18" s="12" t="str">
+      <c r="F18" s="7" t="str">
         <f t="shared" si="2"/>
         <v>1:4130</v>
       </c>
-      <c r="G18" s="8"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="12">
+      <c r="A19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="7">
         <v>84.153999999999996</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="7">
         <v>84.194999999999993</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="7">
         <f t="shared" si="0"/>
         <v>84.174499999999995</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="7">
         <f t="shared" si="1"/>
         <v>4.0999999999996817E-2</v>
       </c>
-      <c r="F19" s="12" t="str">
+      <c r="F19" s="7" t="str">
         <f t="shared" si="2"/>
         <v>1:2053</v>
       </c>
-      <c r="G19" s="8"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
@@ -1333,13 +1333,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A1:F1"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
